--- a/SP_Sklad/TempLate/RepOrdKAID.xlsx
+++ b/SP_Sklad/TempLate/RepOrdKAID.xlsx
@@ -17,7 +17,7 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$10:$10</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -958,7 +958,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:P78"/>
+  <dimension ref="B1:P13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
@@ -1281,71 +1281,6 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C11:F11"/>

--- a/SP_Sklad/TempLate/RepOrdKAID.xlsx
+++ b/SP_Sklad/TempLate/RepOrdKAID.xlsx
@@ -223,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -299,21 +299,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="23"/>
       </left>
@@ -479,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -519,9 +504,6 @@
     <xf numFmtId="2" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -534,34 +516,37 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -583,9 +568,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -967,7 +949,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1" style="3" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" style="3" customWidth="1"/>
@@ -987,22 +969,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
@@ -1070,7 +1052,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="e">
-        <f>XLRPARAMS_MATID</f>
+        <f>XLRPARAMS_MatId</f>
         <v>#NAME?</v>
       </c>
       <c r="E5" s="4"/>
@@ -1100,44 +1082,44 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="34" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="27" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="27" t="s">
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="28"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="35"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="10" t="s">
         <v>5</v>
       </c>
@@ -1167,12 +1149,12 @@
       <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>2</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="11">
         <v>4</v>
       </c>
@@ -1203,47 +1185,47 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="19" t="e">
-        <f>MatList_BARCODE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C11" s="24" t="e">
-        <f>MatList_MATNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="22" t="e">
-        <f>MatList_MSRNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H11" s="21" t="e">
-        <f>MatList_KANAME</f>
+      <c r="B11" s="21" t="e">
+        <f>MatList_BarCode</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C11" s="23" t="e">
+        <f>MatList_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="21" t="e">
+        <f>MatList_MsrName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H11" s="20" t="e">
+        <f>MatList_KaName</f>
         <v>#NAME?</v>
       </c>
       <c r="I11" s="1" t="e">
-        <f>MatList_AMOUNTORD</f>
+        <f>MatList_AmountOrd</f>
         <v>#NAME?</v>
       </c>
       <c r="J11" s="1" t="e">
-        <f>MatList_TOTALORD</f>
+        <f>MatList_TotalOrd</f>
         <v>#NAME?</v>
       </c>
       <c r="K11" s="1" t="e">
         <f>MatList_PersonName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="23" t="e">
-        <f>MatList_ONDATE</f>
+      <c r="L11" s="22" t="e">
+        <f>MatList_OnDate</f>
         <v>#NAME?</v>
       </c>
       <c r="M11" s="1" t="e">
-        <f>MatList_AMOUNTOUT</f>
+        <f>MatList_AmountOut</f>
         <v>#NAME?</v>
       </c>
       <c r="N11" s="1" t="e">
-        <f>MatList_TOTALOUT</f>
+        <f>MatList_TotalOut</f>
         <v>#NAME?</v>
       </c>
       <c r="O11" s="1" t="e">
@@ -1269,13 +1251,13 @@
       <c r="J12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="20"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="17" t="s">
         <v>14</v>
       </c>

--- a/SP_Sklad/TempLate/RepOrdKAID.xlsx
+++ b/SP_Sklad/TempLate/RepOrdKAID.xlsx
@@ -84,7 +84,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -513,9 +513,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -569,6 +566,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,7 +944,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -956,10 +956,10 @@
     <col min="5" max="5" width="6.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45" style="3" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" style="3" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="9" style="3" customWidth="1"/>
     <col min="14" max="14" width="10.140625" style="3" customWidth="1"/>
@@ -969,22 +969,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
@@ -1082,44 +1082,44 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="33" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="26" t="s">
+      <c r="J8" s="26"/>
+      <c r="K8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="26" t="s">
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="27"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="10" t="s">
         <v>5</v>
       </c>
@@ -1149,12 +1149,12 @@
       <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <v>2</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="11">
         <v>4</v>
       </c>
@@ -1189,13 +1189,13 @@
         <f>MatList_BarCode</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="23" t="e">
+      <c r="C11" s="22" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="21" t="e">
         <f>MatList_MsrName</f>
         <v>#NAME?</v>
@@ -1212,11 +1212,11 @@
         <f>MatList_TotalOrd</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="1" t="e">
+      <c r="K11" s="20" t="e">
         <f>MatList_PersonName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="22" t="e">
+      <c r="L11" s="40" t="e">
         <f>MatList_OnDate</f>
         <v>#NAME?</v>
       </c>
@@ -1279,7 +1279,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CСторінка &amp;P из &amp;N</oddFooter>
   </headerFooter>

--- a/SP_Sklad/TempLate/RepOrdKAID.xlsx
+++ b/SP_Sklad/TempLate/RepOrdKAID.xlsx
@@ -84,7 +84,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -513,6 +513,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -566,9 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,7 +944,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -957,34 +957,34 @@
     <col min="6" max="6" width="4.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="45" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="3" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
@@ -1082,44 +1082,44 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="32" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="25" t="s">
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="26"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="33"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="10" t="s">
         <v>5</v>
       </c>
@@ -1149,12 +1149,12 @@
       <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="30">
         <v>2</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="11">
         <v>4</v>
       </c>
@@ -1189,13 +1189,13 @@
         <f>MatList_BarCode</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="22" t="e">
+      <c r="C11" s="23" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="21" t="e">
         <f>MatList_MsrName</f>
         <v>#NAME?</v>
@@ -1216,7 +1216,7 @@
         <f>MatList_PersonName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="40" t="e">
+      <c r="L11" s="22" t="e">
         <f>MatList_OnDate</f>
         <v>#NAME?</v>
       </c>

--- a/SP_Sklad/TempLate/RepOrdKAID.xlsx
+++ b/SP_Sklad/TempLate/RepOrdKAID.xlsx
@@ -464,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -516,6 +516,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -574,7 +577,28 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -944,7 +968,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -956,11 +980,11 @@
     <col min="5" max="5" width="6.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="10" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="0.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" style="3" customWidth="1"/>
     <col min="14" max="14" width="12.140625" style="3" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" style="3" customWidth="1"/>
@@ -969,22 +993,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
@@ -1082,44 +1106,44 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="33" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="26" t="s">
+      <c r="J8" s="28"/>
+      <c r="K8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="26" t="s">
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="27"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="10" t="s">
         <v>5</v>
       </c>
@@ -1149,12 +1173,12 @@
       <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="31">
         <v>2</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="11">
         <v>4</v>
       </c>
@@ -1189,13 +1213,13 @@
         <f>MatList_BarCode</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="23" t="e">
+      <c r="C11" s="24" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="21" t="e">
         <f>MatList_MsrName</f>
         <v>#NAME?</v>
@@ -1212,7 +1236,7 @@
         <f>MatList_TotalOrd</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="20" t="e">
+      <c r="K11" s="23" t="e">
         <f>MatList_PersonName</f>
         <v>#NAME?</v>
       </c>
@@ -1283,5 +1307,8 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CСторінка &amp;P из &amp;N</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="M11" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>